--- a/uploads/a.xlsx
+++ b/uploads/a.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlorentinaP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/radu.nie/Projects/asist-diploma-generator/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7800BBC-675E-2140-9108-170A2C265B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,7 +224,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,20 +512,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B40" sqref="A4:B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.86328125" customWidth="1"/>
-    <col min="2" max="2" width="30.06640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="2" max="2" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="4" customFormat="1" ht="30.4" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" s="4" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>40</v>
       </c>
@@ -532,7 +533,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>322</v>
       </c>
@@ -540,7 +541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>323</v>
       </c>
@@ -548,7 +549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>324</v>
       </c>
@@ -556,7 +557,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>325</v>
       </c>
@@ -564,7 +565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>326</v>
       </c>
@@ -572,7 +573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>327</v>
       </c>
@@ -580,7 +581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>328</v>
       </c>
@@ -588,7 +589,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>329</v>
       </c>
@@ -596,7 +597,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>330</v>
       </c>
@@ -604,7 +605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>331</v>
       </c>
@@ -612,7 +613,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>332</v>
       </c>
@@ -620,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>333</v>
       </c>
@@ -628,7 +629,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>334</v>
       </c>
@@ -636,7 +637,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>335</v>
       </c>
@@ -644,7 +645,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>336</v>
       </c>
@@ -652,7 +653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>337</v>
       </c>
@@ -660,7 +661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>338</v>
       </c>
@@ -668,7 +669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>339</v>
       </c>
@@ -676,7 +677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>340</v>
       </c>
@@ -684,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>341</v>
       </c>
@@ -692,7 +693,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>342</v>
       </c>
@@ -700,7 +701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>343</v>
       </c>
@@ -708,7 +709,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>344</v>
       </c>
@@ -716,7 +717,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>345</v>
       </c>
@@ -724,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>346</v>
       </c>
@@ -732,7 +733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>347</v>
       </c>
@@ -740,7 +741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>348</v>
       </c>
@@ -748,7 +749,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>349</v>
       </c>
@@ -756,7 +757,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>350</v>
       </c>
@@ -764,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>351</v>
       </c>
@@ -772,7 +773,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>352</v>
       </c>
@@ -780,7 +781,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>353</v>
       </c>
@@ -788,7 +789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>354</v>
       </c>
@@ -796,7 +797,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>355</v>
       </c>
@@ -804,7 +805,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>356</v>
       </c>
@@ -812,7 +813,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>357</v>
       </c>
@@ -820,7 +821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>358</v>
       </c>
@@ -828,7 +829,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>359</v>
       </c>
@@ -836,7 +837,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>360</v>
       </c>
